--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_38.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54219EA5-B172-4BE3-A9FE-FFE01F1EE50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3F6D5-53B0-4877-91D6-A3FD3FAAA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14546" uniqueCount="5907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16254" uniqueCount="6440">
   <si>
     <t>Name</t>
   </si>
@@ -17741,6 +17741,1605 @@
   </si>
   <si>
     <t>7676395257</t>
+  </si>
+  <si>
+    <t>Balaji N S</t>
+  </si>
+  <si>
+    <t>balajireddyb39@gmail.com</t>
+  </si>
+  <si>
+    <t>7483789400</t>
+  </si>
+  <si>
+    <t>Sarvajnachar P G</t>
+  </si>
+  <si>
+    <t>sarvajnapg@gmail.com</t>
+  </si>
+  <si>
+    <t>8970823094</t>
+  </si>
+  <si>
+    <t>Prajwal Managuli</t>
+  </si>
+  <si>
+    <t>prajwalmanaguli2003@gmail.com</t>
+  </si>
+  <si>
+    <t>8660540133</t>
+  </si>
+  <si>
+    <t>WILSON L NANDIPOGU</t>
+  </si>
+  <si>
+    <t>wilsonnandi6@gmail.com</t>
+  </si>
+  <si>
+    <t>6360791450</t>
+  </si>
+  <si>
+    <t>Vishnuvardhan</t>
+  </si>
+  <si>
+    <t>vishnuvishal725@gmail.com</t>
+  </si>
+  <si>
+    <t>7022730766</t>
+  </si>
+  <si>
+    <t>Syed Abdul Raheman Y</t>
+  </si>
+  <si>
+    <t>ssyedabdul082@gmail.com</t>
+  </si>
+  <si>
+    <t>7676666792</t>
+  </si>
+  <si>
+    <t>DARSHAN C D</t>
+  </si>
+  <si>
+    <t>duddanagidarshan@gmail.com</t>
+  </si>
+  <si>
+    <t>6362475559</t>
+  </si>
+  <si>
+    <t>D Yogesh Kumar</t>
+  </si>
+  <si>
+    <t>dyogeshkumar2004@gmail.com</t>
+  </si>
+  <si>
+    <t>9036515913</t>
+  </si>
+  <si>
+    <t>Abhishek kesti</t>
+  </si>
+  <si>
+    <t>abhukesti@gmail.com</t>
+  </si>
+  <si>
+    <t>7829039969</t>
+  </si>
+  <si>
+    <t>GAGAN GOWDA B G</t>
+  </si>
+  <si>
+    <t>gagangowdabg_cse2022@ksit.edu.in</t>
+  </si>
+  <si>
+    <t>9019598767</t>
+  </si>
+  <si>
+    <t>Sachin Prabhu Munavalli</t>
+  </si>
+  <si>
+    <t>Sachinmunavalli89@gmail.com</t>
+  </si>
+  <si>
+    <t>6363850930</t>
+  </si>
+  <si>
+    <t>Akshata Itagi</t>
+  </si>
+  <si>
+    <t>akshataitagi1@gmail.com</t>
+  </si>
+  <si>
+    <t>7337873182</t>
+  </si>
+  <si>
+    <t>Rohit N Honkanadavar</t>
+  </si>
+  <si>
+    <t>rohithonkanadavar@gmail.com</t>
+  </si>
+  <si>
+    <t>8867142830</t>
+  </si>
+  <si>
+    <t>Gagana d</t>
+  </si>
+  <si>
+    <t>gaganadgagana70@gmail.com</t>
+  </si>
+  <si>
+    <t>8123242971</t>
+  </si>
+  <si>
+    <t>Naveena BK</t>
+  </si>
+  <si>
+    <t>naveenanavi7353@gmail.com</t>
+  </si>
+  <si>
+    <t>7899153446</t>
+  </si>
+  <si>
+    <t>Prajwal G</t>
+  </si>
+  <si>
+    <t>gprajwalg9@gmail.com</t>
+  </si>
+  <si>
+    <t>9945637045</t>
+  </si>
+  <si>
+    <t>Dombale Sidhrameshwar Sudhakar</t>
+  </si>
+  <si>
+    <t>sidhrameshwar01@gmail.com</t>
+  </si>
+  <si>
+    <t>8766400057</t>
+  </si>
+  <si>
+    <t>SAIRAM D N</t>
+  </si>
+  <si>
+    <t>sairamdnsairamdn25@gmail.com</t>
+  </si>
+  <si>
+    <t>8884714494</t>
+  </si>
+  <si>
+    <t>Deepa s kenchanagoudra</t>
+  </si>
+  <si>
+    <t>skdeepa147@gmail.com</t>
+  </si>
+  <si>
+    <t>6363349011</t>
+  </si>
+  <si>
+    <t>Srujankumar Adappa Singashetti</t>
+  </si>
+  <si>
+    <t>srujankumarsingashetti053@gmail.com</t>
+  </si>
+  <si>
+    <t>7019690053</t>
+  </si>
+  <si>
+    <t>GAGANDEEP N V</t>
+  </si>
+  <si>
+    <t>gagandeep07gowda@gmail.com</t>
+  </si>
+  <si>
+    <t>7619212843</t>
+  </si>
+  <si>
+    <t>Abhinandan shetti</t>
+  </si>
+  <si>
+    <t>shettiabhinandan9@gmail.com</t>
+  </si>
+  <si>
+    <t>7411402613</t>
+  </si>
+  <si>
+    <t>Vivek S</t>
+  </si>
+  <si>
+    <t>vivekpvrn00@gmail.com</t>
+  </si>
+  <si>
+    <t>9535223543</t>
+  </si>
+  <si>
+    <t>Anjali Ambaji Jadhav</t>
+  </si>
+  <si>
+    <t>anjalijadhav54785@gmail.com</t>
+  </si>
+  <si>
+    <t>7483682466</t>
+  </si>
+  <si>
+    <t>Isra M Tinmekar</t>
+  </si>
+  <si>
+    <t>isratinmekar@gmail.com</t>
+  </si>
+  <si>
+    <t>7204752872</t>
+  </si>
+  <si>
+    <t>VISHWARADHYA</t>
+  </si>
+  <si>
+    <t>vishwapoojari58@gmail.com</t>
+  </si>
+  <si>
+    <t>9110275301</t>
+  </si>
+  <si>
+    <t>Chandana P</t>
+  </si>
+  <si>
+    <t>chandanap.22.beec@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>7892739967</t>
+  </si>
+  <si>
+    <t>Deepti S</t>
+  </si>
+  <si>
+    <t>deeptishashikant2004@gmail.com</t>
+  </si>
+  <si>
+    <t>9353310234</t>
+  </si>
+  <si>
+    <t>Meghana S</t>
+  </si>
+  <si>
+    <t>meghanagiddu@gmail.com</t>
+  </si>
+  <si>
+    <t>8088694420</t>
+  </si>
+  <si>
+    <t>GOVERNMENT ENGINEERING COLLEGE CHALLAKERE</t>
+  </si>
+  <si>
+    <t>Viresh Hanamappa Chinnannavar</t>
+  </si>
+  <si>
+    <t>vireshchinnannavar2222@gmail.com</t>
+  </si>
+  <si>
+    <t>7975746401</t>
+  </si>
+  <si>
+    <t>Uma Maheshwari A</t>
+  </si>
+  <si>
+    <t>umamaheshwari0095@gmail.com</t>
+  </si>
+  <si>
+    <t>9686917119</t>
+  </si>
+  <si>
+    <t>Shweta Basappa Hoolikatti</t>
+  </si>
+  <si>
+    <t>shwetabh172@gmail.com</t>
+  </si>
+  <si>
+    <t>8431657226</t>
+  </si>
+  <si>
+    <t>Sahana P Anand</t>
+  </si>
+  <si>
+    <t>sahanapanand7@gmail.com</t>
+  </si>
+  <si>
+    <t>8618949910</t>
+  </si>
+  <si>
+    <t>Raima R</t>
+  </si>
+  <si>
+    <t>raimar827@gmail.com</t>
+  </si>
+  <si>
+    <t>9483834300</t>
+  </si>
+  <si>
+    <t>Mansoor Ladkhan</t>
+  </si>
+  <si>
+    <t>mansoorladkhan2@gmail.com</t>
+  </si>
+  <si>
+    <t>7676459754</t>
+  </si>
+  <si>
+    <t>Bhavana B T</t>
+  </si>
+  <si>
+    <t>bhavanabt0@gmail.com</t>
+  </si>
+  <si>
+    <t>6360335371</t>
+  </si>
+  <si>
+    <t>Sai Sanjaya M</t>
+  </si>
+  <si>
+    <t>saisanjayam_icb2022@ksit.edu.in</t>
+  </si>
+  <si>
+    <t>7676327610</t>
+  </si>
+  <si>
+    <t>Siddesh S S</t>
+  </si>
+  <si>
+    <t>sidduss84171@gmail.com</t>
+  </si>
+  <si>
+    <t>8431917280</t>
+  </si>
+  <si>
+    <t>Thejas Gowda M R</t>
+  </si>
+  <si>
+    <t>mrthejasgowda@gmail.com</t>
+  </si>
+  <si>
+    <t>8867207269</t>
+  </si>
+  <si>
+    <t>Sangamesh gavimath</t>
+  </si>
+  <si>
+    <t>sangamesh1299@gmail.com</t>
+  </si>
+  <si>
+    <t>7090995465</t>
+  </si>
+  <si>
+    <t>Bhagavanthraya Guranna</t>
+  </si>
+  <si>
+    <t>bhagavantraypolicepatil@gmail.com</t>
+  </si>
+  <si>
+    <t>9110866073</t>
+  </si>
+  <si>
+    <t>gajendra rajak</t>
+  </si>
+  <si>
+    <t>gajendras.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>7899292787</t>
+  </si>
+  <si>
+    <t>Rakshith M</t>
+  </si>
+  <si>
+    <t>rakshithm_cce@ksit.edu.in</t>
+  </si>
+  <si>
+    <t>9035006369</t>
+  </si>
+  <si>
+    <t>Computer &amp; Communication Engineering</t>
+  </si>
+  <si>
+    <t>Mohammad Sufiyan M Gavenavar</t>
+  </si>
+  <si>
+    <t>mohammadsufiyans797@gmail.com</t>
+  </si>
+  <si>
+    <t>7348929434</t>
+  </si>
+  <si>
+    <t>M sushil kumar</t>
+  </si>
+  <si>
+    <t>sushilkumar01233123@gmail.com</t>
+  </si>
+  <si>
+    <t>7994006342</t>
+  </si>
+  <si>
+    <t>Vishwas R</t>
+  </si>
+  <si>
+    <t>Vishwasraghunath121@gmail.com</t>
+  </si>
+  <si>
+    <t>6363613554</t>
+  </si>
+  <si>
+    <t>Mani Raj Kaushik</t>
+  </si>
+  <si>
+    <t>manis.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>7856056637</t>
+  </si>
+  <si>
+    <t>Sibasundar das</t>
+  </si>
+  <si>
+    <t>sibasibun26@gmail.com</t>
+  </si>
+  <si>
+    <t>9861647027</t>
+  </si>
+  <si>
+    <t>Tanishq Pratap</t>
+  </si>
+  <si>
+    <t>tanishqm.22.beds@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>6363224102</t>
+  </si>
+  <si>
+    <t>Mahaling</t>
+  </si>
+  <si>
+    <t>mahalingabhi713@gmail.com</t>
+  </si>
+  <si>
+    <t>9113568202</t>
+  </si>
+  <si>
+    <t>Spoorthy S Theertha</t>
+  </si>
+  <si>
+    <t>spoorthytheertha@gmail.com</t>
+  </si>
+  <si>
+    <t>8123867487</t>
+  </si>
+  <si>
+    <t>Prajwal Suresh Hasilakar</t>
+  </si>
+  <si>
+    <t>prajwalsureshhasilakar23ecdip@rnsit.ac.in</t>
+  </si>
+  <si>
+    <t>7204109881</t>
+  </si>
+  <si>
+    <t>H Poorvi Hande</t>
+  </si>
+  <si>
+    <t>rvit22bis088.rvitm@rvei.edu.in</t>
+  </si>
+  <si>
+    <t>9148032240</t>
+  </si>
+  <si>
+    <t>RV Institute of Technology and Management</t>
+  </si>
+  <si>
+    <t>PRUTHVIRAJ R</t>
+  </si>
+  <si>
+    <t>pruthvirajr416@gmail.com</t>
+  </si>
+  <si>
+    <t>6366054871</t>
+  </si>
+  <si>
+    <t>Shafiya Hussain M Z</t>
+  </si>
+  <si>
+    <t>shafiyahussainmz19@gmail.com</t>
+  </si>
+  <si>
+    <t>8904786611</t>
+  </si>
+  <si>
+    <t>Saish Amanraj Yeshawant</t>
+  </si>
+  <si>
+    <t>saishyeshawant@gmail.com</t>
+  </si>
+  <si>
+    <t>9353704202</t>
+  </si>
+  <si>
+    <t>Rashmi Joteppa</t>
+  </si>
+  <si>
+    <t>rashmijoteppa@gmail.com</t>
+  </si>
+  <si>
+    <t>6362355119</t>
+  </si>
+  <si>
+    <t>Vidya Dalabanjan</t>
+  </si>
+  <si>
+    <t>vidyasdalabanjan@gmail.com</t>
+  </si>
+  <si>
+    <t>6360643014</t>
+  </si>
+  <si>
+    <t>Ayan Dev Burman</t>
+  </si>
+  <si>
+    <t>ayand.22.beis@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>7209296137</t>
+  </si>
+  <si>
+    <t>PRAJWAL K R</t>
+  </si>
+  <si>
+    <t>prajwalkr612@gmail.com</t>
+  </si>
+  <si>
+    <t>7975931288</t>
+  </si>
+  <si>
+    <t>Debojyoti Dey</t>
+  </si>
+  <si>
+    <t>debojyotil.22.beis@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>6001865272</t>
+  </si>
+  <si>
+    <t>Ananda selvam</t>
+  </si>
+  <si>
+    <t>anandaselvam2003@gmail.com</t>
+  </si>
+  <si>
+    <t>8660298492</t>
+  </si>
+  <si>
+    <t>Anand kalyani</t>
+  </si>
+  <si>
+    <t>askalyani2001@gmail.com</t>
+  </si>
+  <si>
+    <t>7353434731</t>
+  </si>
+  <si>
+    <t>Ranjita kalsannavar</t>
+  </si>
+  <si>
+    <t>kalsannavarranjita@gmail.com</t>
+  </si>
+  <si>
+    <t>8073978183</t>
+  </si>
+  <si>
+    <t>RAKESH BASAVARAJ ATANOOR</t>
+  </si>
+  <si>
+    <t>rakeshatanoor@gmail.com</t>
+  </si>
+  <si>
+    <t>9008941921</t>
+  </si>
+  <si>
+    <t>S K NANDITHA</t>
+  </si>
+  <si>
+    <t>sknandithakrishna@gmail.com</t>
+  </si>
+  <si>
+    <t>9008771239</t>
+  </si>
+  <si>
+    <t>Chetan R</t>
+  </si>
+  <si>
+    <t>chetan.ravi2003@gmail.com</t>
+  </si>
+  <si>
+    <t>9148027448</t>
+  </si>
+  <si>
+    <t>Deepthi B E</t>
+  </si>
+  <si>
+    <t>deepthibe.cs23@bmsce.ac.in</t>
+  </si>
+  <si>
+    <t>7676638395</t>
+  </si>
+  <si>
+    <t>BMS College of Engineering</t>
+  </si>
+  <si>
+    <t>Shilpa K M</t>
+  </si>
+  <si>
+    <t>shilpakm.cs23@bmsce.ac.in</t>
+  </si>
+  <si>
+    <t>8088123307</t>
+  </si>
+  <si>
+    <t>Supreeth A R</t>
+  </si>
+  <si>
+    <t>supreethar.cs23@bmsce.ac.in</t>
+  </si>
+  <si>
+    <t>9110656374</t>
+  </si>
+  <si>
+    <t>Shashank N A</t>
+  </si>
+  <si>
+    <t>shashankputtu055@gmail.com</t>
+  </si>
+  <si>
+    <t>7483356903</t>
+  </si>
+  <si>
+    <t>H G Harsh</t>
+  </si>
+  <si>
+    <t>hgharsh495@gmail.com</t>
+  </si>
+  <si>
+    <t>8618647166</t>
+  </si>
+  <si>
+    <t>HARSHAVARDHANA REDDY A</t>
+  </si>
+  <si>
+    <t>harsha2004reddy@gmail.com</t>
+  </si>
+  <si>
+    <t>6360206053</t>
+  </si>
+  <si>
+    <t>RAMESH K</t>
+  </si>
+  <si>
+    <t>ballariramesh0825@gmail.com</t>
+  </si>
+  <si>
+    <t>7672047816</t>
+  </si>
+  <si>
+    <t>Shubharani H S</t>
+  </si>
+  <si>
+    <t>shubharanihs2004@gmail.com</t>
+  </si>
+  <si>
+    <t>7760770952</t>
+  </si>
+  <si>
+    <t>Mahima Manjunath Kamat</t>
+  </si>
+  <si>
+    <t>mahimakamat8@gmail.com</t>
+  </si>
+  <si>
+    <t>7892988577</t>
+  </si>
+  <si>
+    <t>GORLA JAYA KIRAN KUMAR REDDY</t>
+  </si>
+  <si>
+    <t>jayakiranreddy2@gmail.com</t>
+  </si>
+  <si>
+    <t>9177562443</t>
+  </si>
+  <si>
+    <t>Pruthviraj M</t>
+  </si>
+  <si>
+    <t>mpruthiviraj628@gmail.com</t>
+  </si>
+  <si>
+    <t>9380376596</t>
+  </si>
+  <si>
+    <t>Hulyappagol Aryan Suresh</t>
+  </si>
+  <si>
+    <t>aryanhulyappagol@gmail.com</t>
+  </si>
+  <si>
+    <t>8962928654</t>
+  </si>
+  <si>
+    <t>Somanagouda Biradar</t>
+  </si>
+  <si>
+    <t>22u1110@students.git.edu</t>
+  </si>
+  <si>
+    <t>6360066132</t>
+  </si>
+  <si>
+    <t>Anu K R</t>
+  </si>
+  <si>
+    <t>anukr664@gmail.com</t>
+  </si>
+  <si>
+    <t>9353624897</t>
+  </si>
+  <si>
+    <t>Mallikarjun Iranna Bandai</t>
+  </si>
+  <si>
+    <t>bandaimallikarjun@gmail.com</t>
+  </si>
+  <si>
+    <t>8904282025</t>
+  </si>
+  <si>
+    <t>Hirasugar Institute of Technology, Nidasoshi</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>ramyachandappa@gmail.com</t>
+  </si>
+  <si>
+    <t>6363942318</t>
+  </si>
+  <si>
+    <t>Mohammed Afraz Ahmed</t>
+  </si>
+  <si>
+    <t>ahmedafraaz6@gmail.com</t>
+  </si>
+  <si>
+    <t>9172321193</t>
+  </si>
+  <si>
+    <t>Jahnavi R M</t>
+  </si>
+  <si>
+    <t>jahnavirmjanu@gmail.com</t>
+  </si>
+  <si>
+    <t>9035539202</t>
+  </si>
+  <si>
+    <t>Faishal Rahman Ansari</t>
+  </si>
+  <si>
+    <t>faishalrahman729580@gmail.com</t>
+  </si>
+  <si>
+    <t>9162038134</t>
+  </si>
+  <si>
+    <t>Tavakalmastan Hasansab Kandgal</t>
+  </si>
+  <si>
+    <t>tavakalmastanm.22.beec@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>8971296502</t>
+  </si>
+  <si>
+    <t>Balusu Devi Satya Vara Prasad</t>
+  </si>
+  <si>
+    <t>balusuprasad09@gmail.com</t>
+  </si>
+  <si>
+    <t>7386135082</t>
+  </si>
+  <si>
+    <t>Aeronautical Engineering</t>
+  </si>
+  <si>
+    <t>DESIGN &amp; DEVELOPMENT OF EV ( Mechanical , Mechatronics , Automobile )</t>
+  </si>
+  <si>
+    <t>DESIGN &amp; DEVELOPMENT OF ELECTRIC VEHICLE ( Mechanical , Mechatronics , Automobile )</t>
+  </si>
+  <si>
+    <t>Chaitesh lokare</t>
+  </si>
+  <si>
+    <t>chaiteshlokare@gmail.com</t>
+  </si>
+  <si>
+    <t>6363437765</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Vaishnavi V Patil</t>
+  </si>
+  <si>
+    <t>vaishavivp@gmail.com</t>
+  </si>
+  <si>
+    <t>7676376109</t>
+  </si>
+  <si>
+    <t>PRAKRUTHI H Y</t>
+  </si>
+  <si>
+    <t>hyyprakruthi@gmail.com</t>
+  </si>
+  <si>
+    <t>9880298781</t>
+  </si>
+  <si>
+    <t>Harsha T M</t>
+  </si>
+  <si>
+    <t>yashwanthtm42@gmail.com</t>
+  </si>
+  <si>
+    <t>8660527472</t>
+  </si>
+  <si>
+    <t>Nithin A</t>
+  </si>
+  <si>
+    <t>manojnithin841@gmail.com</t>
+  </si>
+  <si>
+    <t>7899613177</t>
+  </si>
+  <si>
+    <t>Omkareshwarayya</t>
+  </si>
+  <si>
+    <t>omkarhiremath913@gmail.com</t>
+  </si>
+  <si>
+    <t>9071228980</t>
+  </si>
+  <si>
+    <t>Ranjith B C</t>
+  </si>
+  <si>
+    <t>ranjithbc1717@gmail.com</t>
+  </si>
+  <si>
+    <t>9353632223</t>
+  </si>
+  <si>
+    <t>Yash Magadum</t>
+  </si>
+  <si>
+    <t>yashmagadum19@gmail.com</t>
+  </si>
+  <si>
+    <t>8147848708</t>
+  </si>
+  <si>
+    <t>Panchakshari bandi</t>
+  </si>
+  <si>
+    <t>bandipanchakshari@gmail.com</t>
+  </si>
+  <si>
+    <t>9108339126</t>
+  </si>
+  <si>
+    <t>Bharath S</t>
+  </si>
+  <si>
+    <t>bhanubharath2004@gmail.com</t>
+  </si>
+  <si>
+    <t>7411687259</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>11aditi0294@gmail.com</t>
+  </si>
+  <si>
+    <t>8296106902</t>
+  </si>
+  <si>
+    <t>PRASANNAKSHI PRASHANT TARIBAGIL</t>
+  </si>
+  <si>
+    <t>taribagilsonali29@gmail.com</t>
+  </si>
+  <si>
+    <t>6363469799</t>
+  </si>
+  <si>
+    <t>MD KAIFULLA</t>
+  </si>
+  <si>
+    <t>mdkaifulla232@gmail.com</t>
+  </si>
+  <si>
+    <t>8147502966</t>
+  </si>
+  <si>
+    <t>Pavan Gowda GL</t>
+  </si>
+  <si>
+    <t>pavanlokesh7259@gmail.com</t>
+  </si>
+  <si>
+    <t>9141319147</t>
+  </si>
+  <si>
+    <t>Vasudev Samaji</t>
+  </si>
+  <si>
+    <t>vasudevr.22.beee@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>6361055225</t>
+  </si>
+  <si>
+    <t>Sohan ks</t>
+  </si>
+  <si>
+    <t>kssohan223@gmail.com</t>
+  </si>
+  <si>
+    <t>8867285216</t>
+  </si>
+  <si>
+    <t>SOMANAGOUDA F TANGOD</t>
+  </si>
+  <si>
+    <t>Somuft932@gmail.com</t>
+  </si>
+  <si>
+    <t>7975419227</t>
+  </si>
+  <si>
+    <t>Manoj S Arikatti</t>
+  </si>
+  <si>
+    <t>manusarikatti@gmail.com</t>
+  </si>
+  <si>
+    <t>6361258465</t>
+  </si>
+  <si>
+    <t>Angshika Roy</t>
+  </si>
+  <si>
+    <t>royangshika08@gmail.com</t>
+  </si>
+  <si>
+    <t>8877432946</t>
+  </si>
+  <si>
+    <t>Dinesh Shankar Gaonkar</t>
+  </si>
+  <si>
+    <t>dineshgaonkar466@gmail.com</t>
+  </si>
+  <si>
+    <t>9481802814</t>
+  </si>
+  <si>
+    <t>Nikith Gowda K K</t>
+  </si>
+  <si>
+    <t>nikithgowda36@gmail.com</t>
+  </si>
+  <si>
+    <t>8951420724</t>
+  </si>
+  <si>
+    <t>Priyanka Anand Talawar</t>
+  </si>
+  <si>
+    <t>priyankatalawar12@gmail.com</t>
+  </si>
+  <si>
+    <t>8867216412</t>
+  </si>
+  <si>
+    <t>Nagarjun PV</t>
+  </si>
+  <si>
+    <t>1rn22is091.nagarjunpv@rnsit.ac.in</t>
+  </si>
+  <si>
+    <t>9972959996</t>
+  </si>
+  <si>
+    <t>Priyanshu Raj</t>
+  </si>
+  <si>
+    <t>priyanshum.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>9508897764</t>
+  </si>
+  <si>
+    <t>Sreyas Gaddagimath</t>
+  </si>
+  <si>
+    <t>sreyasgaddgimath@gmail.com</t>
+  </si>
+  <si>
+    <t>9148504789</t>
+  </si>
+  <si>
+    <t>Sagar L</t>
+  </si>
+  <si>
+    <t>sagarlreddy2004@gmail.com</t>
+  </si>
+  <si>
+    <t>9880906923</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Sachinsureshnaik19@gmail.com</t>
+  </si>
+  <si>
+    <t>8867371822</t>
+  </si>
+  <si>
+    <t>Sangeeta H Reddi</t>
+  </si>
+  <si>
+    <t>sangeetareddi96@gmail.com</t>
+  </si>
+  <si>
+    <t>8277682690</t>
+  </si>
+  <si>
+    <t>Chapa Jhansi</t>
+  </si>
+  <si>
+    <t>chapajhansiias@gmail.com</t>
+  </si>
+  <si>
+    <t>8277186188</t>
+  </si>
+  <si>
+    <t>Sanvi M</t>
+  </si>
+  <si>
+    <t>sanvis265@gmail.com</t>
+  </si>
+  <si>
+    <t>8197090575</t>
+  </si>
+  <si>
+    <t>Ramsha munazza</t>
+  </si>
+  <si>
+    <t>Munazzaramsha@gmail.com</t>
+  </si>
+  <si>
+    <t>9113609636</t>
+  </si>
+  <si>
+    <t>Madhu a</t>
+  </si>
+  <si>
+    <t>madhuagasthya1118@gmail.com</t>
+  </si>
+  <si>
+    <t>9353721240</t>
+  </si>
+  <si>
+    <t>kiran shivaraj hulihalli</t>
+  </si>
+  <si>
+    <t>kiransh1215@gmail.com</t>
+  </si>
+  <si>
+    <t>6362841694</t>
+  </si>
+  <si>
+    <t>Keertana Uppar</t>
+  </si>
+  <si>
+    <t>upparm509@gmail.com</t>
+  </si>
+  <si>
+    <t>9886700986</t>
+  </si>
+  <si>
+    <t>Poornima Mahantesh Deshanur</t>
+  </si>
+  <si>
+    <t>deshanurpoornima@gmail.com</t>
+  </si>
+  <si>
+    <t>8792866704</t>
+  </si>
+  <si>
+    <t>NITHIN N</t>
+  </si>
+  <si>
+    <t>nithinnnagarj0601@gmail.com</t>
+  </si>
+  <si>
+    <t>8904727267</t>
+  </si>
+  <si>
+    <t>SOHIL HAJARESAB NADAF</t>
+  </si>
+  <si>
+    <t>nadafsohil91@gmail.com</t>
+  </si>
+  <si>
+    <t>9739418370</t>
+  </si>
+  <si>
+    <t>Monisha D</t>
+  </si>
+  <si>
+    <t>mdr2825color@gmail.com</t>
+  </si>
+  <si>
+    <t>9972475543</t>
+  </si>
+  <si>
+    <t>Divya shree s</t>
+  </si>
+  <si>
+    <t>divyasrinivas199@gmail.com</t>
+  </si>
+  <si>
+    <t>9480569044</t>
+  </si>
+  <si>
+    <t>Sanjana S</t>
+  </si>
+  <si>
+    <t>sanjana20041105@gmail.com</t>
+  </si>
+  <si>
+    <t>7022756018</t>
+  </si>
+  <si>
+    <t>Medical Electronics Engineering</t>
+  </si>
+  <si>
+    <t>Veena Prakash Ambali</t>
+  </si>
+  <si>
+    <t>veenaambali@gmail.com</t>
+  </si>
+  <si>
+    <t>8317415443</t>
+  </si>
+  <si>
+    <t>Hemanth</t>
+  </si>
+  <si>
+    <t>nhemanthn8@gmail.com</t>
+  </si>
+  <si>
+    <t>9148139834</t>
+  </si>
+  <si>
+    <t>Shrinidhi Parashuram Inchal</t>
+  </si>
+  <si>
+    <t>shrinidhiinchal@gmail.com</t>
+  </si>
+  <si>
+    <t>8431639936</t>
+  </si>
+  <si>
+    <t>Virupakshi H</t>
+  </si>
+  <si>
+    <t>hvirupakshi352@gmail.com</t>
+  </si>
+  <si>
+    <t>7019462929</t>
+  </si>
+  <si>
+    <t>B Vaishnavi</t>
+  </si>
+  <si>
+    <t>vaishnaviballolli090@gmail.com</t>
+  </si>
+  <si>
+    <t>8889080844</t>
+  </si>
+  <si>
+    <t>S M Shreyas</t>
+  </si>
+  <si>
+    <t>shreyassmsm09@gmail.com</t>
+  </si>
+  <si>
+    <t>8147947087</t>
+  </si>
+  <si>
+    <t>Manish Kumar K M</t>
+  </si>
+  <si>
+    <t>rvit22bec035.rvitm@rvei.edu.in</t>
+  </si>
+  <si>
+    <t>8431788343</t>
+  </si>
+  <si>
+    <t>Hemanth Reddy R</t>
+  </si>
+  <si>
+    <t>reddyhemanth0044@gmail.com</t>
+  </si>
+  <si>
+    <t>8310044193</t>
+  </si>
+  <si>
+    <t>Mohan Krishnappa Rathod</t>
+  </si>
+  <si>
+    <t>mr681579@gmail.com</t>
+  </si>
+  <si>
+    <t>8105327746</t>
+  </si>
+  <si>
+    <t>Ranjita S Choukanavar</t>
+  </si>
+  <si>
+    <t>ranjusc938@gmail.com</t>
+  </si>
+  <si>
+    <t>6364768356</t>
+  </si>
+  <si>
+    <t>Anjali Kalyankar</t>
+  </si>
+  <si>
+    <t>anjalimkalyankar15@gmail.com</t>
+  </si>
+  <si>
+    <t>8088589728</t>
+  </si>
+  <si>
+    <t>T Sirisha</t>
+  </si>
+  <si>
+    <t>sirishat146@gmail.com</t>
+  </si>
+  <si>
+    <t>7624872858</t>
+  </si>
+  <si>
+    <t>Kumar Sagar A</t>
+  </si>
+  <si>
+    <t>kumarsagar4567891@gmail.com</t>
+  </si>
+  <si>
+    <t>6364951222</t>
+  </si>
+  <si>
+    <t>Rahul Raj</t>
+  </si>
+  <si>
+    <t>r.rahul.developer@gmail.com</t>
+  </si>
+  <si>
+    <t>8002030975</t>
+  </si>
+  <si>
+    <t>Lakshith</t>
+  </si>
+  <si>
+    <t>lakshithhb@gmail.com</t>
+  </si>
+  <si>
+    <t>9535605486</t>
+  </si>
+  <si>
+    <t>Mohammed Maqsood D</t>
+  </si>
+  <si>
+    <t>mohammedd.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>6363777670</t>
+  </si>
+  <si>
+    <t>Chandan M N</t>
+  </si>
+  <si>
+    <t>chandan.mn.2005@gmail.com</t>
+  </si>
+  <si>
+    <t>7483958703</t>
+  </si>
+  <si>
+    <t>AMARNATHSA ARVINDSA SHIDLING</t>
+  </si>
+  <si>
+    <t>shidlingamarnath@gmail.com</t>
+  </si>
+  <si>
+    <t>9353445866</t>
+  </si>
+  <si>
+    <t>Shashank H C</t>
+  </si>
+  <si>
+    <t>shashankhc2004@gmail.com</t>
+  </si>
+  <si>
+    <t>6360131475</t>
+  </si>
+  <si>
+    <t>Vikas S M</t>
+  </si>
+  <si>
+    <t>vikas.sm732@gmail.com</t>
+  </si>
+  <si>
+    <t>6360266090</t>
+  </si>
+  <si>
+    <t>Manoj M V</t>
+  </si>
+  <si>
+    <t>manugowda911757@gmail.com</t>
+  </si>
+  <si>
+    <t>8073708237</t>
+  </si>
+  <si>
+    <t>Rajkumar</t>
+  </si>
+  <si>
+    <t>rajkumar23csdip@rnsit.ac.in</t>
+  </si>
+  <si>
+    <t>8618034854</t>
+  </si>
+  <si>
+    <t>Govind Jairam Rathod</t>
+  </si>
+  <si>
+    <t>govindjairam.cs23@bmsce.ac.in</t>
+  </si>
+  <si>
+    <t>6966564107</t>
+  </si>
+  <si>
+    <t>Ravi kiran T</t>
+  </si>
+  <si>
+    <t>Ravikiran98001@gmail.com</t>
+  </si>
+  <si>
+    <t>7899886384</t>
+  </si>
+  <si>
+    <t>Rajnikanth</t>
+  </si>
+  <si>
+    <t>rajnikanthmalge728@gmail.com</t>
+  </si>
+  <si>
+    <t>8971146428</t>
+  </si>
+  <si>
+    <t>Rutika Kenchannavar</t>
+  </si>
+  <si>
+    <t>rutikakenchannavar@gmail.com</t>
+  </si>
+  <si>
+    <t>8431303041</t>
+  </si>
+  <si>
+    <t>Fardinkhan Inamadar</t>
+  </si>
+  <si>
+    <t>inamdarfardeenkhan@gmail.com</t>
+  </si>
+  <si>
+    <t>9035451308</t>
+  </si>
+  <si>
+    <t>aishugowda655@gmail.com</t>
+  </si>
+  <si>
+    <t>7259974043</t>
+  </si>
+  <si>
+    <t>Sanketh H Talawar</t>
+  </si>
+  <si>
+    <t>sankusanketh4@gmail.com</t>
+  </si>
+  <si>
+    <t>8123078104</t>
+  </si>
+  <si>
+    <t>1nc22cd011@ncetmail.com</t>
+  </si>
+  <si>
+    <t>6360565738</t>
+  </si>
+  <si>
+    <t>MARILINGAPPA</t>
+  </si>
+  <si>
+    <t>marilingas42@gmail.com</t>
+  </si>
+  <si>
+    <t>9353681855</t>
+  </si>
+  <si>
+    <t>Mruthuynjaya</t>
+  </si>
+  <si>
+    <t>mruthuynjaya8@gmail.com</t>
+  </si>
+  <si>
+    <t>6362412363</t>
+  </si>
+  <si>
+    <t>Koduru guru sathvik</t>
+  </si>
+  <si>
+    <t>gurusathvik01@gmail.com</t>
+  </si>
+  <si>
+    <t>9391991202</t>
+  </si>
+  <si>
+    <t>Umme Asma</t>
+  </si>
+  <si>
+    <t>uasma437@gmail.com</t>
+  </si>
+  <si>
+    <t>8105271811</t>
+  </si>
+  <si>
+    <t>anjalispande2493@gmail.com</t>
+  </si>
+  <si>
+    <t>7349501388</t>
+  </si>
+  <si>
+    <t>Namruta</t>
+  </si>
+  <si>
+    <t>namratakamble234n@gmail.com</t>
+  </si>
+  <si>
+    <t>8660998658</t>
+  </si>
+  <si>
+    <t>Veghana N Gowda</t>
+  </si>
+  <si>
+    <t>veganagowda@gmail.com</t>
+  </si>
+  <si>
+    <t>7899061703</t>
+  </si>
+  <si>
+    <t>Md Imran</t>
+  </si>
+  <si>
+    <t>44imranhussain@gmail.com</t>
+  </si>
+  <si>
+    <t>7903778390</t>
+  </si>
+  <si>
+    <t>Sindhu DR</t>
+  </si>
+  <si>
+    <t>sagarsindhu3033@gmail.com</t>
+  </si>
+  <si>
+    <t>8197345625</t>
+  </si>
+  <si>
+    <t>Shrusti Suresh Renti</t>
+  </si>
+  <si>
+    <t>shrustirenti29@gmail.com</t>
+  </si>
+  <si>
+    <t>8073572669</t>
+  </si>
+  <si>
+    <t>C Rahul</t>
+  </si>
+  <si>
+    <t>rahulc_ece@ksit.edu.in</t>
+  </si>
+  <si>
+    <t>9845798437</t>
+  </si>
+  <si>
+    <t>Dhanush</t>
+  </si>
+  <si>
+    <t>poojarydhanush284@gmail.com</t>
+  </si>
+  <si>
+    <t>9606890316</t>
+  </si>
+  <si>
+    <t>Harshith D V</t>
+  </si>
+  <si>
+    <t>1mj23ec409@mvjce.edu.in</t>
+  </si>
+  <si>
+    <t>9731724339</t>
+  </si>
+  <si>
+    <t>Samyama D Jain</t>
+  </si>
+  <si>
+    <t>samyamjain000@gmail.com</t>
+  </si>
+  <si>
+    <t>7019564102</t>
+  </si>
+  <si>
+    <t>Mangalore Inst. of Tech. &amp; Engg., Moodabidri</t>
+  </si>
+  <si>
+    <t>Aashirvaad Kumar S</t>
+  </si>
+  <si>
+    <t>aashirvaad.cs23@bmsce.ac.in</t>
+  </si>
+  <si>
+    <t>7259388148</t>
+  </si>
+  <si>
+    <t>rakesh shivappa awati</t>
+  </si>
+  <si>
+    <t>awatirakesh79@gmail.com</t>
+  </si>
+  <si>
+    <t>8618955050</t>
+  </si>
+  <si>
+    <t>Rohit Patil</t>
+  </si>
+  <si>
+    <t>rohit23.patil06@gmail.com</t>
+  </si>
+  <si>
+    <t>6360405556</t>
   </si>
 </sst>
 </file>
@@ -18103,7 +19702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE3A8C8-7478-4A5A-866E-2CC09B5D4D7C}">
-  <dimension ref="A1:G2078"/>
+  <dimension ref="A1:G2322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65903,6 +67502,5618 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2079" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>5908</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2079" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2079" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2080" t="s">
+        <v>5910</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>5911</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>999</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2080" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2080" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2081" t="s">
+        <v>5913</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>5914</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>999</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2081" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2082" t="s">
+        <v>5916</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>5917</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2082" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2082" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2083" t="s">
+        <v>5919</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2083" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2084" t="s">
+        <v>5922</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2084" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2085" t="s">
+        <v>5925</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>5926</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2085" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2085" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2086" t="s">
+        <v>5928</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>5929</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>999</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2086" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2086" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2087" t="s">
+        <v>5922</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2087" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2087" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2088" t="s">
+        <v>5931</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>5932</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2088" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2088" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2089" t="s">
+        <v>5934</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>5935</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2089" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2089" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2090" t="s">
+        <v>5937</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>5938</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2090" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2090" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2091" t="s">
+        <v>5940</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>5941</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2091" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2091" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2092" t="s">
+        <v>5943</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>5944</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2092" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2092" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2093" t="s">
+        <v>5946</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>5947</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2093" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2093" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2094" t="s">
+        <v>5949</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>5950</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2094" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2094" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2095" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>5953</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2095" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2095" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2096" t="s">
+        <v>5955</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>5956</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2096" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2096" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2097" t="s">
+        <v>5958</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>5959</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2097" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2097" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2098" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>5962</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2098" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2099" t="s">
+        <v>5964</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>5965</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2099" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2100" t="s">
+        <v>5967</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>5968</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2101" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>5971</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2102" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2103" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2104" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2104" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2105" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2106" t="s">
+        <v>5976</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>5977</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2106" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2107" t="s">
+        <v>5979</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>5980</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2108" t="s">
+        <v>5982</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>5983</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2109" t="s">
+        <v>5985</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>5986</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2110" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>5989</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2111" t="s">
+        <v>5991</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>5992</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2111" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2112" t="s">
+        <v>5995</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>5996</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>801</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2113" t="s">
+        <v>5998</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>5999</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2114" t="s">
+        <v>6001</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>6002</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2115" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2116" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>6008</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2117" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>6011</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2118" t="s">
+        <v>6013</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>6014</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2119" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2120" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2121" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2122" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2123" t="s">
+        <v>6019</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>6020</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>4802</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2124" t="s">
+        <v>6022</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>6023</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2125" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>6026</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2126" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>6026</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2127" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>6029</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2128" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>6029</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2129" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>6029</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2130" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2130" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2131" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2132" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2133" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2134" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2135" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2136" t="s">
+        <v>6034</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>6035</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>6037</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2137" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2138" t="s">
+        <v>6038</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>6039</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2139" t="s">
+        <v>6041</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>6042</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2140" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>6045</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2141" t="s">
+        <v>6047</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>6048</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2142" t="s">
+        <v>6050</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>6051</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2143" t="s">
+        <v>6053</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>6054</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2144" t="s">
+        <v>6056</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>6057</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2145" t="s">
+        <v>6059</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>6060</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2146" t="s">
+        <v>6062</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>6063</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2147" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>6066</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2148" t="s">
+        <v>6069</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>6070</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2149" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>6073</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2150" t="s">
+        <v>6075</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2151" t="s">
+        <v>6075</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2152" t="s">
+        <v>6075</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2153" t="s">
+        <v>6075</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2154" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>6079</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2155" t="s">
+        <v>6069</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>6070</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2156" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>6082</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2157" t="s">
+        <v>6084</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>6085</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2158" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>6088</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2159" t="s">
+        <v>6090</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>6091</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2160" t="s">
+        <v>6090</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>6091</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2161" t="s">
+        <v>6093</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>6094</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>5319</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2162" t="s">
+        <v>6096</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>6097</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2163" t="s">
+        <v>6099</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>6100</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2164" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>6103</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2165" t="s">
+        <v>6105</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>6106</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2166" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>6109</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2167" t="s">
+        <v>6111</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>6112</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2168" t="s">
+        <v>6115</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>6116</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2169" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>6119</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2170" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>6122</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2171" t="s">
+        <v>6096</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>6097</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2172" t="s">
+        <v>6124</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>6125</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2173" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>6128</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2174" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>6131</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2175" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>6131</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2176" t="s">
+        <v>6133</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>6134</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2177" t="s">
+        <v>6136</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>6137</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2178" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>6140</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2179" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>6140</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2180" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>6140</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2181" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>6140</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2182" t="s">
+        <v>6142</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2183" t="s">
+        <v>6145</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>6146</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2183" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2184" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>6149</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2185" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>6149</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2186" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>6149</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2186" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2187" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>6152</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2187" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2188" t="s">
+        <v>6154</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>6155</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2188" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2189" t="s">
+        <v>6158</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>6159</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2189" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2190" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2190" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2191" t="s">
+        <v>6164</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2192" t="s">
+        <v>6164</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2192" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2193" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>6168</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2193" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2194" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2194" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2195" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2195" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2196" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>6176</v>
+      </c>
+      <c r="F2196" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2197" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>6176</v>
+      </c>
+      <c r="F2197" t="s">
+        <v>6178</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2198" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>6180</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>6182</v>
+      </c>
+      <c r="F2198" t="s">
+        <v>6178</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2199" t="s">
+        <v>6183</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>6184</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>970</v>
+      </c>
+      <c r="E2199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2199" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2200" t="s">
+        <v>6186</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>6187</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2200" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2201" t="s">
+        <v>6189</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>6190</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2201" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2202" t="s">
+        <v>6192</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>6193</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2202" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2203" t="s">
+        <v>6192</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>6193</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2203" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2204" t="s">
+        <v>6192</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>6193</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2204" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2205" t="s">
+        <v>6192</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>6193</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2206" t="s">
+        <v>6195</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2206" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2207" t="s">
+        <v>6195</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2207" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2208" t="s">
+        <v>5925</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>5926</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2208" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2209" t="s">
+        <v>6198</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>6199</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>6200</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2210" t="s">
+        <v>6201</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>6202</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2210" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2211" t="s">
+        <v>6204</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>6205</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>6206</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2212" t="s">
+        <v>6207</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>6208</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>6182</v>
+      </c>
+      <c r="F2212" t="s">
+        <v>6178</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2213" t="s">
+        <v>6204</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>6205</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>6206</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2213" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2214" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>6211</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>6212</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2214" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2215" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>6214</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2215" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2216" t="s">
+        <v>6216</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>6217</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>6218</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2216" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2217" t="s">
+        <v>6219</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>6220</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>6221</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2218" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>6223</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2218" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2219" t="s">
+        <v>6225</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>6226</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>6227</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2219" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2220" t="s">
+        <v>6228</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>6229</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>6230</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2221" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>6232</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>6233</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2221" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2222" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>6235</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>6236</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>999</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2222" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2223" t="s">
+        <v>6237</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>6238</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>4802</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2223" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2224" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>6241</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>6242</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2224" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2225" t="s">
+        <v>6243</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>6244</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>6245</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F2225" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2226" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>6248</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2226" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2227" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>6248</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2227" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2228" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>6248</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2228" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2229" t="s">
+        <v>6249</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>6250</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>6251</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2230" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>6248</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2230" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2231" t="s">
+        <v>6252</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>6253</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>6254</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2232" t="s">
+        <v>6255</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>6256</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>6257</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2233" t="s">
+        <v>6258</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>6259</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>6260</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2234" t="s">
+        <v>6261</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>6262</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>6263</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2235" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2236" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2237" t="s">
+        <v>6264</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>6265</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>6266</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2238" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>6269</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2239" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>6271</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>6272</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2240" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>6271</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>6272</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2241" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>6271</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>6272</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2242" t="s">
+        <v>6273</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>6275</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2243" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>6277</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>6278</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2244" t="s">
+        <v>6279</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>6280</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>6281</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2245" t="s">
+        <v>6282</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>6283</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>6284</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2246" t="s">
+        <v>6285</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>6286</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>6287</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2247" t="s">
+        <v>6288</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>6290</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2248" t="s">
+        <v>6291</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>6292</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>6293</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2249" t="s">
+        <v>6288</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>6290</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2250" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>6295</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>6296</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2251" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>6298</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>6299</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>6300</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2252" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>6302</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>6303</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2252" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2253" t="s">
+        <v>6304</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>6305</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>6306</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2253" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2254" t="s">
+        <v>6307</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>6308</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>6309</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2254" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2254" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2255" t="s">
+        <v>6310</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>6311</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>6312</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2255" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2256" t="s">
+        <v>6313</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>6314</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>6315</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2256" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2257" t="s">
+        <v>6124</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>6125</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2257" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2258" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>6317</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>6318</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2259" t="s">
+        <v>6319</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>6320</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>6321</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E2259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2259" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2260" t="s">
+        <v>6322</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>6323</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>6324</v>
+      </c>
+      <c r="D2260" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2260" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2260" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2261" t="s">
+        <v>6325</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>6326</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>6327</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E2261" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2261" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2262" t="s">
+        <v>6328</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>6329</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>6330</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E2262" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2262" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2263" t="s">
+        <v>6328</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>6329</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>6330</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E2263" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2263" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2264" t="s">
+        <v>6331</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>6332</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>6333</v>
+      </c>
+      <c r="D2264" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>6182</v>
+      </c>
+      <c r="F2264" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2265" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>6335</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>6336</v>
+      </c>
+      <c r="D2265" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2265" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2266" t="s">
+        <v>6337</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>6338</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>6339</v>
+      </c>
+      <c r="D2266" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2266" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2267" t="s">
+        <v>6340</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>6341</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>6342</v>
+      </c>
+      <c r="D2267" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2267" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2268" t="s">
+        <v>6343</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>6344</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>6345</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F2268" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2269" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>6223</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2269" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2270" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>6223</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2270" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2271" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>6347</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>6348</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2271" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2271" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2272" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>6350</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>6351</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2272" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2272" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2273" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>6350</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>6351</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2273" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2273" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2274" t="s">
+        <v>6352</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>6353</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>6354</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2274" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2274" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2275" t="s">
+        <v>6355</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>6356</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>6357</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2275" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2276" t="s">
+        <v>6358</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>6359</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>6360</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2276" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2277" t="s">
+        <v>6361</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>6362</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>6363</v>
+      </c>
+      <c r="D2277" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2277" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2278" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2278" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2278" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2279" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D2279" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2279" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2280" t="s">
+        <v>6285</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>6286</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>6287</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2280" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2281" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>6269</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2282" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>6269</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2282" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2283" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>6269</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2283" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2284" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>6365</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>6366</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2284" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2285" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>6365</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>6366</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2286" t="s">
+        <v>6367</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>6368</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>6369</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2286" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2287" t="s">
+        <v>6370</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>6371</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>6372</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2287" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2288" t="s">
+        <v>6373</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>6374</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>6375</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2288" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2289" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>6377</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2289" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2290" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>6380</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>6381</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2290" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2291" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>6382</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>6383</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2292" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>6380</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>6381</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2293" t="s">
+        <v>6358</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>6359</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>6360</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2293" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2294" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>6385</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>6386</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2294" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2295" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>6388</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2296" t="s">
+        <v>6389</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>6390</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>6391</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2296" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2297" t="s">
+        <v>6392</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>6393</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>6394</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2298" t="s">
+        <v>6395</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>6396</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>6397</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2298" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2299" t="s">
+        <v>6398</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>6399</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>6400</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>999</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2299" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2300" t="s">
+        <v>993</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>6401</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>6402</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F2300" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2301" t="s">
+        <v>6403</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>6404</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>6405</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2301" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2302" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>6407</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>6408</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2302" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2303" t="s">
+        <v>6409</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>6410</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>6411</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2304" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2305" t="s">
+        <v>6412</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>6413</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>6414</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2306" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>6140</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2307" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>6128</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2308" t="s">
+        <v>6415</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>6417</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2309" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2310" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2310" t="s">
+        <v>6177</v>
+      </c>
+      <c r="G2310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2311" t="s">
+        <v>6421</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>6423</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2312" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2312" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2313" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2313" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2314" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2314" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2315" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2315" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2316" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2316" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2317" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2317" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2318" t="s">
+        <v>6424</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>6425</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>6426</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2318" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2319" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>6428</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>6429</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>6430</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2320" t="s">
+        <v>6431</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>6433</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2320" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2321" t="s">
+        <v>6434</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>6436</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2321" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2322" t="s">
+        <v>6437</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>6438</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>6439</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2322" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
